--- a/timings.xlsx
+++ b/timings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0DFCFD-1ECC-4D5A-BED2-61798560C946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B80B47-EFDC-4EB8-9CC9-09DDD69CF684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Timings</t>
   </si>
@@ -39,6 +39,25 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>机电集成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器视觉</t>
+  </si>
+  <si>
+    <t>先进制造技术与系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新时代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -51,26 +70,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zoom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可填可不填</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3表示每周3的这个时候参加会议</t>
-  </si>
-  <si>
-    <t>4/21表示只在这天参加会议</t>
+    <t>Tencent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>院级高等讲堂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zoom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tencent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +118,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF232333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -143,7 +148,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,14 +431,13 @@
   <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
@@ -456,22 +459,20 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.56180555555555556</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B2" s="2">
+        <v>290526102</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2">
         <v>4</v>
       </c>
@@ -480,108 +481,149 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.41597222222222219</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2">
+        <v>732938173</v>
+      </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" s="3"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.41597222222222219</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5">
+        <v>109147089</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="3"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.64513888888888882</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>298268214</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.74236111111111114</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="B6" s="5">
+        <v>403848798</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.48472222222222222</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="B7" s="5">
+        <v>124692830</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="E7" s="3">
+        <v>44679</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.75624999999999998</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="B8" s="5">
+        <v>84582727598</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="E8" s="3">
-        <v>44672</v>
+        <v>44684</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.98402777777777783</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B9" s="5">
+        <v>792644447</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="E9" s="3">
-        <v>44670</v>
+        <v>44689</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E10" s="3"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="B10" s="5">
+        <v>85621775445</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="E10" s="3">
+        <v>44691</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E11" s="3"/>
